--- a/Aggregations/Aggregation_plots.xlsx
+++ b/Aggregations/Aggregation_plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\GT-IOA\Aggregations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Aggregations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D872EE-E863-4AE5-8EC4-92B8420DF5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8578C295-2A97-4DAA-AB13-66B568E10E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Agriculture, cattling &amp; fishering</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Electricity by wind</t>
+  </si>
+  <si>
+    <t>Agriculture &amp; food</t>
+  </si>
+  <si>
+    <t>Petrochemicals</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,15 +446,15 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -456,23 +462,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -480,7 +486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -488,7 +494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -496,15 +502,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -512,15 +518,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -528,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -536,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -544,7 +550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -552,7 +558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -560,7 +566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -568,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -576,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -584,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -592,7 +598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -600,7 +606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -608,7 +614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -616,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -624,7 +630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>

--- a/Aggregations/Aggregation_plots.xlsx
+++ b/Aggregations/Aggregation_plots.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Aggregations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8578C295-2A97-4DAA-AB13-66B568E10E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751D52BE-562E-4B34-A674-CB22C58ED23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
+    <sheet name="Region" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,31 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
-  <si>
-    <t>Agriculture, cattling &amp; fishering</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
-    <t>Electricity by fossil fuels</t>
-  </si>
-  <si>
-    <t>Electricity by nuclear</t>
-  </si>
-  <si>
-    <t>Electricity by other RES</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Fuels extraction</t>
-  </si>
-  <si>
-    <t>Fuels refinery</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="180">
   <si>
     <t>Metals</t>
   </si>
@@ -71,15 +48,9 @@
     <t>Other manufacturing</t>
   </si>
   <si>
-    <t>PV modules</t>
-  </si>
-  <si>
     <t>Services</t>
   </si>
   <si>
-    <t>Si-cells</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
@@ -92,31 +63,520 @@
     <t>New</t>
   </si>
   <si>
-    <t>PV plants</t>
-  </si>
-  <si>
-    <t>Onshore wind plants</t>
-  </si>
-  <si>
-    <t>DFIG generators</t>
-  </si>
-  <si>
-    <t>Offshore wind plants</t>
-  </si>
-  <si>
-    <t>PMG generators</t>
-  </si>
-  <si>
-    <t>Electricity by PV</t>
-  </si>
-  <si>
-    <t>Electricity by wind</t>
-  </si>
-  <si>
     <t>Agriculture &amp; food</t>
   </si>
   <si>
     <t>Petrochemicals</t>
+  </si>
+  <si>
+    <t>Cultivation of paddy rice</t>
+  </si>
+  <si>
+    <t>Cultivation of wheat</t>
+  </si>
+  <si>
+    <t>Cultivation of cereal grains nec</t>
+  </si>
+  <si>
+    <t>Cultivation of vegetables, fruit, nuts</t>
+  </si>
+  <si>
+    <t>Cultivation of oil seeds</t>
+  </si>
+  <si>
+    <t>Cultivation of sugar cane, sugar beet</t>
+  </si>
+  <si>
+    <t>Cultivation of plant-based fibers</t>
+  </si>
+  <si>
+    <t>Cultivation of crops nec</t>
+  </si>
+  <si>
+    <t>Cattle farming</t>
+  </si>
+  <si>
+    <t>Pigs farming</t>
+  </si>
+  <si>
+    <t>Poultry farming</t>
+  </si>
+  <si>
+    <t>Meat animals nec</t>
+  </si>
+  <si>
+    <t>Animal products nec</t>
+  </si>
+  <si>
+    <t>Raw milk</t>
+  </si>
+  <si>
+    <t>Wool, silk-worm cocoons</t>
+  </si>
+  <si>
+    <t>Manure treatment (conventional), storage and land application</t>
+  </si>
+  <si>
+    <t>Manure treatment (biogas), storage and land application</t>
+  </si>
+  <si>
+    <t>Forestry, logging and related service activities (02)</t>
+  </si>
+  <si>
+    <t>Fishing, operating of fish hatcheries and fish farms; service activities incidental to fishing (05)</t>
+  </si>
+  <si>
+    <t>Mining of coal and lignite; extraction of peat (10)</t>
+  </si>
+  <si>
+    <t>Extraction of crude petroleum and services related to crude oil extraction, excluding surveying</t>
+  </si>
+  <si>
+    <t>Extraction of natural gas and services related to natural gas extraction, excluding surveying</t>
+  </si>
+  <si>
+    <t>Extraction, liquefaction, and regasification of other petroleum and gaseous materials</t>
+  </si>
+  <si>
+    <t>Mining of uranium and thorium ores (12)</t>
+  </si>
+  <si>
+    <t>Mining of iron ores</t>
+  </si>
+  <si>
+    <t>Mining of copper ores and concentrates</t>
+  </si>
+  <si>
+    <t>Mining of nickel ores and concentrates</t>
+  </si>
+  <si>
+    <t>Mining of aluminium ores and concentrates</t>
+  </si>
+  <si>
+    <t>Mining of precious metal ores and concentrates</t>
+  </si>
+  <si>
+    <t>Mining of lead, zinc and tin ores and concentrates</t>
+  </si>
+  <si>
+    <t>Mining of other non-ferrous metal ores and concentrates</t>
+  </si>
+  <si>
+    <t>Quarrying of stone</t>
+  </si>
+  <si>
+    <t>Quarrying of sand and clay</t>
+  </si>
+  <si>
+    <t>Mining of chemical and fertilizer minerals, production of salt, other mining and quarrying n.e.c.</t>
+  </si>
+  <si>
+    <t>Processing of meat cattle</t>
+  </si>
+  <si>
+    <t>Processing of meat pigs</t>
+  </si>
+  <si>
+    <t>Processing of meat poultry</t>
+  </si>
+  <si>
+    <t>Production of meat products nec</t>
+  </si>
+  <si>
+    <t>Processing vegetable oils and fats</t>
+  </si>
+  <si>
+    <t>Processing of dairy products</t>
+  </si>
+  <si>
+    <t>Processed rice</t>
+  </si>
+  <si>
+    <t>Sugar refining</t>
+  </si>
+  <si>
+    <t>Processing of Food products nec</t>
+  </si>
+  <si>
+    <t>Manufacture of beverages</t>
+  </si>
+  <si>
+    <t>Manufacture of fish products</t>
+  </si>
+  <si>
+    <t>Manufacture of tobacco products (16)</t>
+  </si>
+  <si>
+    <t>Manufacture of textiles (17)</t>
+  </si>
+  <si>
+    <t>Manufacture of wearing apparel; dressing and dyeing of fur (18)</t>
+  </si>
+  <si>
+    <t>Tanning and dressing of leather; manufacture of luggage, handbags, saddlery, harness and footwear (19)</t>
+  </si>
+  <si>
+    <t>Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials (20)</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary wood material into new wood material</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary paper into new pulp</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Publishing, printing and reproduction of recorded media (22)</t>
+  </si>
+  <si>
+    <t>Manufacture of coke oven products</t>
+  </si>
+  <si>
+    <t>Petroleum Refinery</t>
+  </si>
+  <si>
+    <t>Processing of nuclear fuel</t>
+  </si>
+  <si>
+    <t>Plastics, basic</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary plastic into new plastic</t>
+  </si>
+  <si>
+    <t>N-fertiliser</t>
+  </si>
+  <si>
+    <t>P- and other fertiliser</t>
+  </si>
+  <si>
+    <t>Chemicals nec</t>
+  </si>
+  <si>
+    <t>Manufacture of rubber and plastic products (25)</t>
+  </si>
+  <si>
+    <t>Manufacture of glass and glass products</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary glass into new glass</t>
+  </si>
+  <si>
+    <t>Manufacture of ceramic goods</t>
+  </si>
+  <si>
+    <t>Manufacture of bricks, tiles and construction products, in baked clay</t>
+  </si>
+  <si>
+    <t>Manufacture of cement, lime and plaster</t>
+  </si>
+  <si>
+    <t>Re-processing of ash into clinker</t>
+  </si>
+  <si>
+    <t>Manufacture of other non-metallic mineral products n.e.c.</t>
+  </si>
+  <si>
+    <t>Manufacture of basic iron and steel and of ferro-alloys and first products thereof</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary steel into new steel</t>
+  </si>
+  <si>
+    <t>Precious metals production</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary preciuos metals into new preciuos metals</t>
+  </si>
+  <si>
+    <t>Aluminium production</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary aluminium into new aluminium</t>
+  </si>
+  <si>
+    <t>Lead, zinc and tin production</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary lead into new lead, zinc and tin</t>
+  </si>
+  <si>
+    <t>Copper production</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary copper into new copper</t>
+  </si>
+  <si>
+    <t>Other non-ferrous metal production</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
+  </si>
+  <si>
+    <t>Casting of metals</t>
+  </si>
+  <si>
+    <t>Manufacture of fabricated metal products, except machinery and equipment (28)</t>
+  </si>
+  <si>
+    <t>Manufacture of machinery and equipment n.e.c. (29)</t>
+  </si>
+  <si>
+    <t>Manufacture of office machinery and computers (30)</t>
+  </si>
+  <si>
+    <t>Manufacture of electrical machinery and apparatus n.e.c. (31)</t>
+  </si>
+  <si>
+    <t>Manufacture of radio, television and communication equipment and apparatus (32)</t>
+  </si>
+  <si>
+    <t>Manufacture of medical, precision and optical instruments, watches and clocks (33)</t>
+  </si>
+  <si>
+    <t>Manufacture of motor vehicles, trailers and semi-trailers (34)</t>
+  </si>
+  <si>
+    <t>Manufacture of other transport equipment (35)</t>
+  </si>
+  <si>
+    <t>Manufacture of furniture; manufacturing n.e.c. (36)</t>
+  </si>
+  <si>
+    <t>Recycling of waste and scrap</t>
+  </si>
+  <si>
+    <t>Recycling of bottles by direct reuse</t>
+  </si>
+  <si>
+    <t>Production of electricity by coal</t>
+  </si>
+  <si>
+    <t>Production of electricity by gas</t>
+  </si>
+  <si>
+    <t>Production of electricity by nuclear</t>
+  </si>
+  <si>
+    <t>Production of electricity by hydro</t>
+  </si>
+  <si>
+    <t>Production of electricity by wind</t>
+  </si>
+  <si>
+    <t>Production of electricity by petroleum and other oil derivatives</t>
+  </si>
+  <si>
+    <t>Production of electricity by biomass and waste</t>
+  </si>
+  <si>
+    <t>Production of electricity by solar photovoltaic</t>
+  </si>
+  <si>
+    <t>Production of electricity by solar thermal</t>
+  </si>
+  <si>
+    <t>Production of electricity by tide, wave, ocean</t>
+  </si>
+  <si>
+    <t>Production of electricity by Geothermal</t>
+  </si>
+  <si>
+    <t>Production of electricity nec</t>
+  </si>
+  <si>
+    <t>Transmission of electricity</t>
+  </si>
+  <si>
+    <t>Distribution and trade of electricity</t>
+  </si>
+  <si>
+    <t>Manufacture of gas; distribution of gaseous fuels through mains</t>
+  </si>
+  <si>
+    <t>Steam and hot water supply</t>
+  </si>
+  <si>
+    <t>Collection, purification and distribution of water (41)</t>
+  </si>
+  <si>
+    <t>Construction (45)</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary construction material into aggregates</t>
+  </si>
+  <si>
+    <t>Sale, maintenance, repair of motor vehicles, motor vehicles parts, motorcycles, motor cycles parts and accessoiries</t>
+  </si>
+  <si>
+    <t>Retail sale of automotive fuel</t>
+  </si>
+  <si>
+    <t>Wholesale trade and commission trade, except of motor vehicles and motorcycles (51)</t>
+  </si>
+  <si>
+    <t>Retail trade, except of motor vehicles and motorcycles; repair of personal and household goods (52)</t>
+  </si>
+  <si>
+    <t>Hotels and restaurants (55)</t>
+  </si>
+  <si>
+    <t>Transport via railways</t>
+  </si>
+  <si>
+    <t>Other land transport</t>
+  </si>
+  <si>
+    <t>Transport via pipelines</t>
+  </si>
+  <si>
+    <t>Sea and coastal water transport</t>
+  </si>
+  <si>
+    <t>Inland water transport</t>
+  </si>
+  <si>
+    <t>Air transport (62)</t>
+  </si>
+  <si>
+    <t>Supporting and auxiliary transport activities; activities of travel agencies (63)</t>
+  </si>
+  <si>
+    <t>Post and telecommunications (64)</t>
+  </si>
+  <si>
+    <t>Financial intermediation, except insurance and pension funding (65)</t>
+  </si>
+  <si>
+    <t>Insurance and pension funding, except compulsory social security (66)</t>
+  </si>
+  <si>
+    <t>Activities auxiliary to financial intermediation (67)</t>
+  </si>
+  <si>
+    <t>Real estate activities (70)</t>
+  </si>
+  <si>
+    <t>Renting of machinery and equipment without operator and of personal and household goods (71)</t>
+  </si>
+  <si>
+    <t>Computer and related activities (72)</t>
+  </si>
+  <si>
+    <t>Research and development (73)</t>
+  </si>
+  <si>
+    <t>Other business activities (74)</t>
+  </si>
+  <si>
+    <t>Public administration and defence; compulsory social security (75)</t>
+  </si>
+  <si>
+    <t>Education (80)</t>
+  </si>
+  <si>
+    <t>Health and social work (85)</t>
+  </si>
+  <si>
+    <t>Incineration of waste: Food</t>
+  </si>
+  <si>
+    <t>Incineration of waste: Paper</t>
+  </si>
+  <si>
+    <t>Incineration of waste: Plastic</t>
+  </si>
+  <si>
+    <t>Incineration of waste: Metals and Inert materials</t>
+  </si>
+  <si>
+    <t>Incineration of waste: Textiles</t>
+  </si>
+  <si>
+    <t>Incineration of waste: Wood</t>
+  </si>
+  <si>
+    <t>Incineration of waste: Oil/Hazardous waste</t>
+  </si>
+  <si>
+    <t>Biogasification of food waste, incl. land application</t>
+  </si>
+  <si>
+    <t>Biogasification of paper, incl. land application</t>
+  </si>
+  <si>
+    <t>Biogasification of sewage slugde, incl. land application</t>
+  </si>
+  <si>
+    <t>Composting of food waste, incl. land application</t>
+  </si>
+  <si>
+    <t>Composting of paper and wood, incl. land application</t>
+  </si>
+  <si>
+    <t>Waste water treatment, food</t>
+  </si>
+  <si>
+    <t>Waste water treatment, other</t>
+  </si>
+  <si>
+    <t>Landfill of waste: Food</t>
+  </si>
+  <si>
+    <t>Landfill of waste: Paper</t>
+  </si>
+  <si>
+    <t>Landfill of waste: Plastic</t>
+  </si>
+  <si>
+    <t>Landfill of waste: Inert/metal/hazardous</t>
+  </si>
+  <si>
+    <t>Landfill of waste: Textiles</t>
+  </si>
+  <si>
+    <t>Landfill of waste: Wood</t>
+  </si>
+  <si>
+    <t>Activities of membership organisation n.e.c. (91)</t>
+  </si>
+  <si>
+    <t>Recreational, cultural and sporting activities (92)</t>
+  </si>
+  <si>
+    <t>Other service activities (93)</t>
+  </si>
+  <si>
+    <t>Private households with employed persons (95)</t>
+  </si>
+  <si>
+    <t>Extra-territorial organizations and bodies</t>
+  </si>
+  <si>
+    <t>Production of photovoltaic plants</t>
+  </si>
+  <si>
+    <t>Production of onshore wind plants</t>
+  </si>
+  <si>
+    <t>Production of offshore wind plants</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
   </si>
 </sst>
 </file>
@@ -443,203 +903,1410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B461DB8-1799-401D-9C01-A2D05E564306}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>